--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2102,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.66052335449331</v>
+        <v>62.77087262215075</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.31596303814732</v>
+        <v>85.88587717705063</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.70054481136685</v>
+        <v>77.68904960087906</v>
       </c>
       <c r="AD2" t="n">
-        <v>50660.52335449331</v>
+        <v>62770.87262215075</v>
       </c>
       <c r="AE2" t="n">
-        <v>69315.96303814731</v>
+        <v>85885.87717705063</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.874132577825156e-06</v>
+        <v>1.271894501607427e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.210648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>62700.54481136685</v>
+        <v>77689.04960087907</v>
       </c>
     </row>
     <row r="3">
@@ -2208,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.75419755228879</v>
+        <v>45.94979816596896</v>
       </c>
       <c r="AB3" t="n">
-        <v>46.18398222101333</v>
+        <v>62.87054101268356</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.77624777754637</v>
+        <v>56.87026481780469</v>
       </c>
       <c r="AD3" t="n">
-        <v>33754.1975522888</v>
+        <v>45949.79816596896</v>
       </c>
       <c r="AE3" t="n">
-        <v>46183.98222101333</v>
+        <v>62870.54101268356</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.576358760974891e-06</v>
+        <v>1.586850912227795e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>41776.24777754636</v>
+        <v>56870.26481780469</v>
       </c>
     </row>
     <row r="4">
@@ -2314,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>33.00377632754412</v>
+        <v>45.19937694122417</v>
       </c>
       <c r="AB4" t="n">
-        <v>45.15722279507472</v>
+        <v>61.84378158674036</v>
       </c>
       <c r="AC4" t="n">
-        <v>40.84748083015038</v>
+        <v>55.94149787040726</v>
       </c>
       <c r="AD4" t="n">
-        <v>33003.77632754412</v>
+        <v>45199.37694122417</v>
       </c>
       <c r="AE4" t="n">
-        <v>45157.22279507473</v>
+        <v>61843.78158674036</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.895145411959678e-06</v>
+        <v>1.64583478895449e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.707175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>40847.48083015038</v>
+        <v>55941.49787040726</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>31.90179013661858</v>
+        <v>44.09739075029845</v>
       </c>
       <c r="AB5" t="n">
-        <v>43.64943667245811</v>
+        <v>60.33599546411696</v>
       </c>
       <c r="AC5" t="n">
-        <v>39.48359569888068</v>
+        <v>54.57761273913545</v>
       </c>
       <c r="AD5" t="n">
-        <v>31901.79013661858</v>
+        <v>44097.39075029845</v>
       </c>
       <c r="AE5" t="n">
-        <v>43649.43667245811</v>
+        <v>60335.99546411695</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.324640837289756e-06</v>
+        <v>1.725302687450521e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.629050925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>39483.59569888069</v>
+        <v>54577.61273913545</v>
       </c>
     </row>
     <row r="6">
@@ -2526,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>31.94162054607598</v>
+        <v>44.13722115975586</v>
       </c>
       <c r="AB6" t="n">
-        <v>43.70393439587112</v>
+        <v>60.39049318753021</v>
       </c>
       <c r="AC6" t="n">
-        <v>39.53289223605935</v>
+        <v>54.62690927631419</v>
       </c>
       <c r="AD6" t="n">
-        <v>31941.62054607598</v>
+        <v>44137.22115975586</v>
       </c>
       <c r="AE6" t="n">
-        <v>43703.93439587112</v>
+        <v>60390.49318753021</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.321437215261738e-06</v>
+        <v>1.72470993349989e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.629050925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>39532.89223605936</v>
+        <v>54626.9092763142</v>
       </c>
     </row>
   </sheetData>
@@ -2823,28 +2823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.96832130429109</v>
+        <v>45.73203343701035</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.47695578497469</v>
+        <v>62.57258570342074</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.04126035575511</v>
+        <v>56.60074594507491</v>
       </c>
       <c r="AD2" t="n">
-        <v>33968.32130429109</v>
+        <v>45732.03343701035</v>
       </c>
       <c r="AE2" t="n">
-        <v>46476.95578497469</v>
+        <v>62572.58570342074</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.089451741120165e-06</v>
+        <v>1.541974348306581e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>42041.2603557551</v>
+        <v>56600.74594507492</v>
       </c>
     </row>
     <row r="3">
@@ -2929,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.49008215785186</v>
+        <v>43.25379429057073</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.08611965263808</v>
+        <v>59.1817495710689</v>
       </c>
       <c r="AC3" t="n">
-        <v>38.9740408648102</v>
+        <v>53.53352645412525</v>
       </c>
       <c r="AD3" t="n">
-        <v>31490.08215785186</v>
+        <v>43253.79429057073</v>
       </c>
       <c r="AE3" t="n">
-        <v>43086.11965263808</v>
+        <v>59181.7495710689</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.360871723159267e-06</v>
+        <v>1.784326619012783e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.678240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>38974.0408648102</v>
+        <v>53533.52645412525</v>
       </c>
     </row>
     <row r="4">
@@ -3035,28 +3035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>30.25643268882445</v>
+        <v>42.02014482153968</v>
       </c>
       <c r="AB4" t="n">
-        <v>41.39818602434949</v>
+        <v>57.49381594260422</v>
       </c>
       <c r="AC4" t="n">
-        <v>37.44720125297072</v>
+        <v>52.0066868422336</v>
       </c>
       <c r="AD4" t="n">
-        <v>30256.43268882445</v>
+        <v>42020.14482153968</v>
       </c>
       <c r="AE4" t="n">
-        <v>41398.18602434949</v>
+        <v>57493.81594260422</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.987563009921979e-06</v>
+        <v>1.903783650146705e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.574074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>37447.20125297072</v>
+        <v>52006.6868422336</v>
       </c>
     </row>
   </sheetData>
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>26.35641102571134</v>
+        <v>36.81985351690044</v>
       </c>
       <c r="AB2" t="n">
-        <v>36.06200432809134</v>
+        <v>50.37854795897059</v>
       </c>
       <c r="AC2" t="n">
-        <v>32.62029724840951</v>
+        <v>45.57049004859545</v>
       </c>
       <c r="AD2" t="n">
-        <v>26356.41102571134</v>
+        <v>36819.85351690044</v>
       </c>
       <c r="AE2" t="n">
-        <v>36062.00432809134</v>
+        <v>50378.54795897059</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.133096246438425e-05</v>
+        <v>2.413198470301343e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.548032407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>32620.29724840952</v>
+        <v>45570.49004859544</v>
       </c>
     </row>
     <row r="3">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>26.36823378850826</v>
+        <v>36.83167627969735</v>
       </c>
       <c r="AB3" t="n">
-        <v>36.07818075373348</v>
+        <v>50.39472438461273</v>
       </c>
       <c r="AC3" t="n">
-        <v>32.63492981869218</v>
+        <v>45.58512261887811</v>
       </c>
       <c r="AD3" t="n">
-        <v>26368.23378850826</v>
+        <v>36831.67627969736</v>
       </c>
       <c r="AE3" t="n">
-        <v>36078.18075373348</v>
+        <v>50394.72438461273</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134157163921688e-05</v>
+        <v>2.415457946895475e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.548032407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>32634.92981869218</v>
+        <v>45585.12261887811</v>
       </c>
     </row>
   </sheetData>
@@ -3735,28 +3735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.05804065143167</v>
+        <v>40.02983669763015</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.75849316947126</v>
+        <v>54.77058856128701</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.96399838283381</v>
+        <v>49.54336046010755</v>
       </c>
       <c r="AD2" t="n">
-        <v>29058.04065143167</v>
+        <v>40029.83669763015</v>
       </c>
       <c r="AE2" t="n">
-        <v>39758.49316947126</v>
+        <v>54770.588561287</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.995653077561168e-06</v>
+        <v>2.0294631561203e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.678240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>35963.99838283382</v>
+        <v>49543.36046010755</v>
       </c>
     </row>
     <row r="3">
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>27.77158639068424</v>
+        <v>38.74338243688272</v>
       </c>
       <c r="AB3" t="n">
-        <v>37.99830969556868</v>
+        <v>53.01040508738443</v>
       </c>
       <c r="AC3" t="n">
-        <v>34.37180434924224</v>
+        <v>47.95116642651597</v>
       </c>
       <c r="AD3" t="n">
-        <v>27771.58639068424</v>
+        <v>38743.38243688272</v>
       </c>
       <c r="AE3" t="n">
-        <v>37998.30969556868</v>
+        <v>53010.40508738442</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093195534555469e-05</v>
+        <v>2.219564887456933e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.536458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>34371.80434924224</v>
+        <v>47951.16642651597</v>
       </c>
     </row>
   </sheetData>
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>25.22709515897668</v>
+        <v>35.27358345596845</v>
       </c>
       <c r="AB2" t="n">
-        <v>34.51682453733267</v>
+        <v>48.26287304499307</v>
       </c>
       <c r="AC2" t="n">
-        <v>31.2225872482028</v>
+        <v>43.65673217903326</v>
       </c>
       <c r="AD2" t="n">
-        <v>25227.09515897668</v>
+        <v>35273.58345596845</v>
       </c>
       <c r="AE2" t="n">
-        <v>34516.82453733266</v>
+        <v>48262.87304499307</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.153928751786623e-05</v>
+        <v>2.569573940201866e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.579861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>31222.5872482028</v>
+        <v>43656.73217903326</v>
       </c>
     </row>
   </sheetData>
@@ -4435,28 +4435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.75310779149552</v>
+        <v>58.33688673753797</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.5507352790989</v>
+        <v>79.81910207607496</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.01255984202227</v>
+        <v>72.20127900076625</v>
       </c>
       <c r="AD2" t="n">
-        <v>34753.10779149552</v>
+        <v>58336.88673753796</v>
       </c>
       <c r="AE2" t="n">
-        <v>47550.7352790989</v>
+        <v>79819.10207607495</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.848906962947937e-06</v>
+        <v>1.48404281239427e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.984953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>43012.55984202227</v>
+        <v>72201.27900076626</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.45258736907491</v>
+        <v>44.32981769666854</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.40306174536013</v>
+        <v>60.65401226609355</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.16529585254661</v>
+        <v>54.86527846387088</v>
       </c>
       <c r="AD3" t="n">
-        <v>32452.58736907491</v>
+        <v>44329.81769666854</v>
       </c>
       <c r="AE3" t="n">
-        <v>44403.06174536014</v>
+        <v>60654.01226609354</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.974409790215862e-06</v>
+        <v>1.696848797867317e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.736111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>40165.29585254662</v>
+        <v>54865.27846387088</v>
       </c>
     </row>
     <row r="4">
@@ -4647,28 +4647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>30.75382083899332</v>
+        <v>42.63105116658668</v>
       </c>
       <c r="AB4" t="n">
-        <v>42.07873443462375</v>
+        <v>58.32968495534671</v>
       </c>
       <c r="AC4" t="n">
-        <v>38.06279907812612</v>
+        <v>52.76278168944712</v>
       </c>
       <c r="AD4" t="n">
-        <v>30753.82083899332</v>
+        <v>42631.05116658668</v>
       </c>
       <c r="AE4" t="n">
-        <v>42078.73443462375</v>
+        <v>58329.68495534671</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.779501819307773e-06</v>
+        <v>1.849072673717799e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.594328703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>38062.79907812612</v>
+        <v>52762.78168944712</v>
       </c>
     </row>
     <row r="5">
@@ -4753,28 +4753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>30.72792813387564</v>
+        <v>42.60515846146901</v>
       </c>
       <c r="AB5" t="n">
-        <v>42.04330689317639</v>
+        <v>58.29425741389919</v>
       </c>
       <c r="AC5" t="n">
-        <v>38.03075269151152</v>
+        <v>52.73073530283246</v>
       </c>
       <c r="AD5" t="n">
-        <v>30727.92813387564</v>
+        <v>42605.15846146901</v>
       </c>
       <c r="AE5" t="n">
-        <v>42043.30689317638</v>
+        <v>58294.25741389919</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.78790109413813e-06</v>
+        <v>1.850660778087001e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.591435185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>38030.75269151152</v>
+        <v>52730.73530283246</v>
       </c>
     </row>
   </sheetData>
@@ -5050,28 +5050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>24.52140939707087</v>
+        <v>34.32099838186796</v>
       </c>
       <c r="AB2" t="n">
-        <v>33.55127414523921</v>
+        <v>46.9595041215276</v>
       </c>
       <c r="AC2" t="n">
-        <v>30.34918763036939</v>
+        <v>42.47775495632968</v>
       </c>
       <c r="AD2" t="n">
-        <v>24521.40939707086</v>
+        <v>34320.99838186796</v>
       </c>
       <c r="AE2" t="n">
-        <v>33551.27414523921</v>
+        <v>46959.5041215276</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.164491611818913e-05</v>
+        <v>2.66967474779561e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.600115740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>30349.18763036939</v>
+        <v>42477.75495632968</v>
       </c>
     </row>
   </sheetData>
@@ -5347,28 +5347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.83758262992027</v>
+        <v>43.23287329657897</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.56158512915864</v>
+        <v>59.15312454412026</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.40412858357304</v>
+        <v>53.5076333595731</v>
       </c>
       <c r="AD2" t="n">
-        <v>31837.58262992027</v>
+        <v>43232.87329657897</v>
       </c>
       <c r="AE2" t="n">
-        <v>43561.58512915864</v>
+        <v>59153.12454412026</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.825609812491032e-06</v>
+        <v>1.729807326313571e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.834490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>39404.12858357304</v>
+        <v>53507.6333595731</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>29.12137057634996</v>
+        <v>40.51666124300502</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.84514396666315</v>
+        <v>55.43668338144884</v>
       </c>
       <c r="AC3" t="n">
-        <v>36.04237934955713</v>
+        <v>50.14588412550506</v>
       </c>
       <c r="AD3" t="n">
-        <v>29121.37057634996</v>
+        <v>40516.66124300502</v>
       </c>
       <c r="AE3" t="n">
-        <v>39845.14396666315</v>
+        <v>55436.68338144883</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042552342574313e-05</v>
+        <v>2.043388183440899e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.553819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>36042.37934955713</v>
+        <v>50145.88412550506</v>
       </c>
     </row>
     <row r="4">
@@ -5559,28 +5559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>29.0595819702589</v>
+        <v>40.45487263691395</v>
       </c>
       <c r="AB4" t="n">
-        <v>39.76060206988885</v>
+        <v>55.35214148467453</v>
       </c>
       <c r="AC4" t="n">
-        <v>35.96590601275542</v>
+        <v>50.06941078870335</v>
       </c>
       <c r="AD4" t="n">
-        <v>29059.5819702589</v>
+        <v>40454.87263691395</v>
       </c>
       <c r="AE4" t="n">
-        <v>39760.60206988885</v>
+        <v>55352.14148467453</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.044769002678042e-05</v>
+        <v>2.047732806610111e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.550925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>35965.90601275542</v>
+        <v>50069.41078870335</v>
       </c>
     </row>
   </sheetData>
@@ -5856,28 +5856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.04045547910783</v>
+        <v>44.68633274511429</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.2074088284139</v>
+        <v>61.14181188371066</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.89287717890436</v>
+        <v>55.30652317061384</v>
       </c>
       <c r="AD2" t="n">
-        <v>33040.45547910783</v>
+        <v>44686.33274511429</v>
       </c>
       <c r="AE2" t="n">
-        <v>45207.40882841391</v>
+        <v>61141.81188371066</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.419784952474383e-06</v>
+        <v>1.618874647148261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.883680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>40892.87717890435</v>
+        <v>55306.52317061384</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>30.65547329375739</v>
+        <v>42.30135055976348</v>
       </c>
       <c r="AB3" t="n">
-        <v>41.94417098444512</v>
+        <v>57.87857403972721</v>
       </c>
       <c r="AC3" t="n">
-        <v>37.94107817477116</v>
+        <v>52.35472416647605</v>
       </c>
       <c r="AD3" t="n">
-        <v>30655.47329375739</v>
+        <v>42301.35055976348</v>
       </c>
       <c r="AE3" t="n">
-        <v>41944.17098444512</v>
+        <v>57878.57403972721</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.721051369327175e-06</v>
+        <v>1.869069542067682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.631944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>37941.07817477116</v>
+        <v>52354.72416647605</v>
       </c>
     </row>
     <row r="4">
@@ -6068,28 +6068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>30.05429355280586</v>
+        <v>41.70017081880845</v>
       </c>
       <c r="AB4" t="n">
-        <v>41.12161034070089</v>
+        <v>57.05601339581276</v>
       </c>
       <c r="AC4" t="n">
-        <v>37.19702156439232</v>
+        <v>51.61066755604687</v>
       </c>
       <c r="AD4" t="n">
-        <v>30054.29355280586</v>
+        <v>41700.17081880845</v>
       </c>
       <c r="AE4" t="n">
-        <v>41121.61034070089</v>
+        <v>57056.01339581276</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.995663227591611e-06</v>
+        <v>1.92186924867063e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.588541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>37197.02156439231</v>
+        <v>51610.66755604687</v>
       </c>
     </row>
   </sheetData>
@@ -6365,28 +6365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.25408533697274</v>
+        <v>61.26168943032154</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.3916124949104</v>
+        <v>83.82094615352754</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.9598515831329</v>
+        <v>75.82119269609146</v>
       </c>
       <c r="AD2" t="n">
-        <v>49254.08533697274</v>
+        <v>61261.68943032154</v>
       </c>
       <c r="AE2" t="n">
-        <v>67391.6124949104</v>
+        <v>83820.94615352755</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.18805845076101e-06</v>
+        <v>1.339080770523707e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.12962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>60959.85158313291</v>
+        <v>75821.19269609146</v>
       </c>
     </row>
     <row r="3">
@@ -6471,28 +6471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.03904439546193</v>
+        <v>45.13189983483335</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.20547812151697</v>
+        <v>61.75145643289665</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.8911307359639</v>
+        <v>55.85798409966719</v>
       </c>
       <c r="AD3" t="n">
-        <v>33039.04439546193</v>
+        <v>45131.89983483335</v>
       </c>
       <c r="AE3" t="n">
-        <v>45205.47812151697</v>
+        <v>61751.45643289665</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.833696200980898e-06</v>
+        <v>1.645650601815778e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.733217592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>40891.1307359639</v>
+        <v>55857.98409966719</v>
       </c>
     </row>
     <row r="4">
@@ -6577,28 +6577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>32.12013892467758</v>
+        <v>44.21299436404886</v>
       </c>
       <c r="AB4" t="n">
-        <v>43.94819111714767</v>
+        <v>60.49416942852169</v>
       </c>
       <c r="AC4" t="n">
-        <v>39.75383743867446</v>
+        <v>54.72069080237599</v>
       </c>
       <c r="AD4" t="n">
-        <v>32120.13892467758</v>
+        <v>44212.99436404886</v>
       </c>
       <c r="AE4" t="n">
-        <v>43948.19111714767</v>
+        <v>60494.16942852169</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.24772608081329e-06</v>
+        <v>1.722781228159962e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.655092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>39753.83743867446</v>
+        <v>54720.69080237599</v>
       </c>
     </row>
     <row r="5">
@@ -6683,28 +6683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>31.53023896437547</v>
+        <v>43.62309440374666</v>
       </c>
       <c r="AB5" t="n">
-        <v>43.1410639669167</v>
+        <v>59.68704227828709</v>
       </c>
       <c r="AC5" t="n">
-        <v>39.02374137084907</v>
+        <v>53.99059473454945</v>
       </c>
       <c r="AD5" t="n">
-        <v>31530.23896437547</v>
+        <v>43623.09440374665</v>
       </c>
       <c r="AE5" t="n">
-        <v>43141.0639669167</v>
+        <v>59687.04227828709</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.476736854391467e-06</v>
+        <v>1.765444198312747e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.617476851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>39023.74137084906</v>
+        <v>53990.59473454946</v>
       </c>
     </row>
   </sheetData>
@@ -6980,28 +6980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.09521719412066</v>
+        <v>41.21570068322782</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.17760387217117</v>
+        <v>56.39313998300059</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.24767115180665</v>
+        <v>51.01105785140285</v>
       </c>
       <c r="AD2" t="n">
-        <v>30095.21719412066</v>
+        <v>41215.70068322781</v>
       </c>
       <c r="AE2" t="n">
-        <v>41177.60387217117</v>
+        <v>56393.1399830006</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.511692967759749e-06</v>
+        <v>1.906616339510752e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.741898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>37247.67115180665</v>
+        <v>51011.05785140285</v>
       </c>
     </row>
     <row r="3">
@@ -7086,28 +7086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.20128859688894</v>
+        <v>39.32177208599609</v>
       </c>
       <c r="AB3" t="n">
-        <v>38.58624721121852</v>
+        <v>53.80178332204795</v>
       </c>
       <c r="AC3" t="n">
-        <v>34.90362993357569</v>
+        <v>48.6670166331719</v>
       </c>
       <c r="AD3" t="n">
-        <v>28201.28859688894</v>
+        <v>39321.77208599609</v>
       </c>
       <c r="AE3" t="n">
-        <v>38586.24721121852</v>
+        <v>53801.78332204794</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077875800321643e-05</v>
+        <v>2.160599190724826e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.536458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>34903.62993357569</v>
+        <v>48667.0166331719</v>
       </c>
     </row>
   </sheetData>
@@ -7383,28 +7383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>27.04739916382732</v>
+        <v>37.69264817069755</v>
       </c>
       <c r="AB2" t="n">
-        <v>37.00744478290223</v>
+        <v>51.57274410927259</v>
       </c>
       <c r="AC2" t="n">
-        <v>33.47550619315009</v>
+        <v>46.65071379438101</v>
       </c>
       <c r="AD2" t="n">
-        <v>27047.39916382732</v>
+        <v>37692.64817069755</v>
       </c>
       <c r="AE2" t="n">
-        <v>37007.44478290223</v>
+        <v>51572.74410927259</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102780168102968e-05</v>
+        <v>2.30708507724596e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.565393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>33475.50619315009</v>
+        <v>46650.71379438101</v>
       </c>
     </row>
     <row r="3">
@@ -7489,28 +7489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>26.82274155330373</v>
+        <v>37.46799056017397</v>
       </c>
       <c r="AB3" t="n">
-        <v>36.70005832899106</v>
+        <v>51.26535765536143</v>
       </c>
       <c r="AC3" t="n">
-        <v>33.19745627097969</v>
+        <v>46.37266387221062</v>
       </c>
       <c r="AD3" t="n">
-        <v>26822.74155330373</v>
+        <v>37467.99056017397</v>
       </c>
       <c r="AE3" t="n">
-        <v>36700.05832899106</v>
+        <v>51265.35765536143</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126261346243606e-05</v>
+        <v>2.356209170380144e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.533564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>33197.45627097969</v>
+        <v>46372.66387221061</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>25.75156861868892</v>
+        <v>36.01695382158117</v>
       </c>
       <c r="AB2" t="n">
-        <v>35.23443226304352</v>
+        <v>49.27998517440543</v>
       </c>
       <c r="AC2" t="n">
-        <v>31.87170749974271</v>
+        <v>44.57677255434336</v>
       </c>
       <c r="AD2" t="n">
-        <v>25751.56861868892</v>
+        <v>36016.95382158117</v>
       </c>
       <c r="AE2" t="n">
-        <v>35234.43226304351</v>
+        <v>49279.98517440543</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.154111468701231e-05</v>
+        <v>2.508871875294105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.548032407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>31871.70749974271</v>
+        <v>44576.77255434336</v>
       </c>
     </row>
   </sheetData>
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>23.95047894292607</v>
+        <v>33.46285628396502</v>
       </c>
       <c r="AB2" t="n">
-        <v>32.77010191020811</v>
+        <v>45.78535624462505</v>
       </c>
       <c r="AC2" t="n">
-        <v>29.64256937706521</v>
+        <v>41.41566610486831</v>
       </c>
       <c r="AD2" t="n">
-        <v>23950.47894292607</v>
+        <v>33462.85628396503</v>
       </c>
       <c r="AE2" t="n">
-        <v>32770.10191020811</v>
+        <v>45785.35624462505</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.126899381507327e-05</v>
+        <v>2.680360564092645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.701388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>29642.56937706521</v>
+        <v>41415.66610486832</v>
       </c>
     </row>
   </sheetData>
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.39440078023652</v>
+        <v>43.91765708139189</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.32344828750072</v>
+        <v>60.09007592902926</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.09328059136687</v>
+        <v>54.35516341932621</v>
       </c>
       <c r="AD2" t="n">
-        <v>32394.40078023652</v>
+        <v>43917.65708139189</v>
       </c>
       <c r="AE2" t="n">
-        <v>44323.44828750072</v>
+        <v>60090.07592902926</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.638277690124373e-06</v>
+        <v>1.676325332770986e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.85474537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>40093.28059136687</v>
+        <v>54355.16341932621</v>
       </c>
     </row>
     <row r="3">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>29.85431998914706</v>
+        <v>41.37757629029868</v>
       </c>
       <c r="AB3" t="n">
-        <v>40.84799768869326</v>
+        <v>56.61462533004164</v>
       </c>
       <c r="AC3" t="n">
-        <v>36.94952211987371</v>
+        <v>51.2114049477796</v>
       </c>
       <c r="AD3" t="n">
-        <v>29854.31998914706</v>
+        <v>41377.57629029868</v>
       </c>
       <c r="AE3" t="n">
-        <v>40847.99768869326</v>
+        <v>56614.62533004164</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007705818788506e-05</v>
+        <v>1.955531938903876e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.591435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>36949.52211987371</v>
+        <v>51211.4049477796</v>
       </c>
     </row>
     <row r="4">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>29.54087117259454</v>
+        <v>41.06412747374615</v>
       </c>
       <c r="AB4" t="n">
-        <v>40.41912318950235</v>
+        <v>56.18575083085073</v>
       </c>
       <c r="AC4" t="n">
-        <v>36.56157880095516</v>
+        <v>50.82346162886105</v>
       </c>
       <c r="AD4" t="n">
-        <v>29540.87117259454</v>
+        <v>41064.12747374616</v>
       </c>
       <c r="AE4" t="n">
-        <v>40419.12318950235</v>
+        <v>56185.75083085073</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.023010933577575e-05</v>
+        <v>1.985232710935338e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.565393518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>36561.57880095516</v>
+        <v>50823.46162886105</v>
       </c>
     </row>
   </sheetData>
@@ -13822,28 +13822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.97688687249408</v>
+        <v>59.87846623059781</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.64409320979202</v>
+        <v>81.92835914816574</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.37911308592695</v>
+        <v>74.10923153825824</v>
       </c>
       <c r="AD2" t="n">
-        <v>47976.88687249408</v>
+        <v>59878.46623059781</v>
       </c>
       <c r="AE2" t="n">
-        <v>65644.09320979202</v>
+        <v>81928.35914816573</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.504331369072565e-06</v>
+        <v>1.408106906660191e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.057291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>59379.11308592695</v>
+        <v>74109.23153825825</v>
       </c>
     </row>
     <row r="3">
@@ -13928,28 +13928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.67255307447516</v>
+        <v>44.65938377860146</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.70402852768934</v>
+        <v>61.10493911882333</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.43753878758076</v>
+        <v>55.27316949065609</v>
       </c>
       <c r="AD3" t="n">
-        <v>32672.55307447516</v>
+        <v>44659.38377860146</v>
       </c>
       <c r="AE3" t="n">
-        <v>44704.02852768934</v>
+        <v>61104.93911882333</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.938613229322658e-06</v>
+        <v>1.677234440372122e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.727430555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>40437.53878758076</v>
+        <v>55273.16949065609</v>
       </c>
     </row>
     <row r="4">
@@ -14034,28 +14034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.27064562308412</v>
+        <v>43.2574763272102</v>
       </c>
       <c r="AB4" t="n">
-        <v>42.78587690491365</v>
+        <v>59.18678749603902</v>
       </c>
       <c r="AC4" t="n">
-        <v>38.70245286353436</v>
+        <v>53.53808356660699</v>
       </c>
       <c r="AD4" t="n">
-        <v>31270.64562308412</v>
+        <v>43257.4763272102</v>
       </c>
       <c r="AE4" t="n">
-        <v>42785.87690491365</v>
+        <v>59186.78749603902</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.590899211170671e-06</v>
+        <v>1.799628875130582e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.611689814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>38702.45286353436</v>
+        <v>53538.08356660698</v>
       </c>
     </row>
     <row r="5">
@@ -14140,28 +14140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>31.02604328028176</v>
+        <v>43.0128739844078</v>
       </c>
       <c r="AB5" t="n">
-        <v>42.4512011883993</v>
+        <v>58.85211177952317</v>
       </c>
       <c r="AC5" t="n">
-        <v>38.39971812768282</v>
+        <v>53.23534883075499</v>
       </c>
       <c r="AD5" t="n">
-        <v>31026.04328028176</v>
+        <v>43012.87398440779</v>
       </c>
       <c r="AE5" t="n">
-        <v>42451.2011883993</v>
+        <v>58852.11177952317</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.69002319384594e-06</v>
+        <v>1.818228422212944e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.594328703703703</v>
       </c>
       <c r="AH5" t="n">
-        <v>38399.71812768283</v>
+        <v>53235.34883075499</v>
       </c>
     </row>
   </sheetData>
@@ -14437,28 +14437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>23.20661447317006</v>
+        <v>32.36680743640189</v>
       </c>
       <c r="AB2" t="n">
-        <v>31.75231372570856</v>
+        <v>44.28569385713394</v>
       </c>
       <c r="AC2" t="n">
-        <v>28.72191746841658</v>
+        <v>40.05912939084552</v>
       </c>
       <c r="AD2" t="n">
-        <v>23206.61447317006</v>
+        <v>32366.80743640189</v>
       </c>
       <c r="AE2" t="n">
-        <v>31752.31372570856</v>
+        <v>44285.69385713394</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047947228924988e-05</v>
+        <v>2.620836491316981e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.892361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>28721.91746841658</v>
+        <v>40059.12939084552</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.03499724616832</v>
+        <v>38.8489442205094</v>
       </c>
       <c r="AB2" t="n">
-        <v>38.35872004890705</v>
+        <v>53.15483937679897</v>
       </c>
       <c r="AC2" t="n">
-        <v>34.69781764429817</v>
+        <v>48.08181611006403</v>
       </c>
       <c r="AD2" t="n">
-        <v>28034.99724616832</v>
+        <v>38848.9442205094</v>
       </c>
       <c r="AE2" t="n">
-        <v>38358.72004890705</v>
+        <v>53154.83937679897</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.050198947484708e-05</v>
+        <v>2.162657320289418e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.62037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>34697.81764429817</v>
+        <v>48081.81611006403</v>
       </c>
     </row>
     <row r="3">
@@ -14840,28 +14840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>27.21020324478038</v>
+        <v>38.02415021912145</v>
       </c>
       <c r="AB3" t="n">
-        <v>37.23020050887026</v>
+        <v>52.02631983676219</v>
       </c>
       <c r="AC3" t="n">
-        <v>33.67700242527201</v>
+        <v>47.06100089103788</v>
       </c>
       <c r="AD3" t="n">
-        <v>27210.20324478038</v>
+        <v>38024.15021912145</v>
       </c>
       <c r="AE3" t="n">
-        <v>37230.20050887026</v>
+        <v>52026.31983676219</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.120068376235258e-05</v>
+        <v>2.306538279143661e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.519097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>33677.00242527202</v>
+        <v>47061.00089103787</v>
       </c>
     </row>
   </sheetData>
@@ -15137,28 +15137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.17219217739372</v>
+        <v>42.43349950616886</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.65116855706122</v>
+        <v>58.05938605819903</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.5806008913362</v>
+        <v>52.51827973967624</v>
       </c>
       <c r="AD2" t="n">
-        <v>31172.19217739372</v>
+        <v>42433.49950616887</v>
       </c>
       <c r="AE2" t="n">
-        <v>42651.16855706122</v>
+        <v>58059.38605819903</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.058458546115172e-06</v>
+        <v>1.794647414880675e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.808449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>38580.60089133619</v>
+        <v>52518.27973967624</v>
       </c>
     </row>
     <row r="3">
@@ -15243,28 +15243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.74037559870246</v>
+        <v>40.00168292747409</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.32384982993621</v>
+        <v>54.73206733090299</v>
       </c>
       <c r="AC3" t="n">
-        <v>35.57083679359695</v>
+        <v>49.50851564188639</v>
       </c>
       <c r="AD3" t="n">
-        <v>28740.37559870246</v>
+        <v>40001.68292747409</v>
       </c>
       <c r="AE3" t="n">
-        <v>39323.84982993621</v>
+        <v>54732.067330903</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.050691310303821e-05</v>
+        <v>2.08161293036221e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.559606481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>35570.83679359694</v>
+        <v>49508.51564188639</v>
       </c>
     </row>
     <row r="4">
@@ -15349,28 +15349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>28.63930299373831</v>
+        <v>39.90061032250994</v>
       </c>
       <c r="AB4" t="n">
-        <v>39.18555783281631</v>
+        <v>54.59377533378308</v>
       </c>
       <c r="AC4" t="n">
-        <v>35.44574319058771</v>
+        <v>49.38342203887716</v>
       </c>
       <c r="AD4" t="n">
-        <v>28639.30299373831</v>
+        <v>39900.61032250994</v>
       </c>
       <c r="AE4" t="n">
-        <v>39185.55783281631</v>
+        <v>54593.77533378308</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.06385650626882e-05</v>
+        <v>2.107695607436574e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.539351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>35445.74319058771</v>
+        <v>49383.42203887716</v>
       </c>
     </row>
   </sheetData>
